--- a/examples/UK OGD/hackney carriage/counters.xlsx
+++ b/examples/UK OGD/hackney carriage/counters.xlsx
@@ -345,7 +345,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
